--- a/DOM_Banner/output/dept0713/Juanita L Merchant_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Juanita L Merchant_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,39 +452,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Cellular and Molecular Medicine and Department of Medicine, Division of Gastroenterology and Hepatology, University of Arizona, Tucson, AZ, USA; Department of Cellular and Molecular Medicine and Department of Medicine, Division of Gastroenterology and Hepatology, University of Arizona, Tucson, AZ, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220661700</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>The immune microenvironment in gastric adenocarcinoma</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-03-14</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Nature Reviews Gastroenterology &amp; Hepatology</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Nature Portfolio</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41575-022-00591-0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -487,35 +492,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35288702</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41575-022-00591-0</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Cellular and Molecular Medicine, University of Arizona; Department of Cellular and Molecular Medicine, University of Arizona; Department of Molecular and Cellular Biology, The University of Arizona; Department of Cellular and Molecular Medicine, University of Arizona; Department of Cellular and Molecular Medicine, University of Arizona; Department of Cellular and Molecular Medicine, University of Arizona; Department of Cellular and Molecular Medicine, University of Arizona; Department of Cellular and Molecular Medicine, University of Arizona; Department of Medicine, The University of Arizona; Department of Cellular and Molecular Medicine, University of Arizona; Department of Molecular and Cellular Biology, The University of Arizona</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4295292783</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Live-cell imaging in human colonic monolayers reveals ERK waves limit the stem cell compartment to maintain epithelial homeostasis</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-09-12</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>eLife</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>eLife Sciences Publications Ltd</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.7554/elife.78837</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36094159</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.7554/elife.78837</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Dept. of Medicine-Gastroenterology &amp; Hepatology, University of Arizona, Tucson.; Department of Cellular &amp; Molecular Medicine, University of Arizona, Tucson, Arizona; Department of Medicine-Gastroenterology &amp; Hepatology, University of Arizona, Tucson, Arizona; Department of Gastroenterology, Xiangya Hospital Central South University, Changsha, Hunan, China; Dinh Tien Hoang Institute of Medicine, Vietnam Union of Science and Technology Association, Institute of Biotechnology, Hanoi, Vietnam; Department of Medicine-Gastroenterology &amp; Hepatology, University of Arizona, Tucson, Arizona; Department of Medicine-Gastroenterology &amp; Hepatology, University of Arizona, Tucson, Arizona; Division of Pediatric General and Thoracic Surgery, Cincinnati Children’s Hospital Medical Center, Cincinnati, Ohio; Division of Pediatric General and Thoracic Surgery, Cincinnati Children’s Hospital Medical Center, Cincinnati, Ohio; Department of Cellular &amp; Molecular Medicine, University of Arizona, Tucson, Arizona; Department of Medicine-Gastroenterology &amp; Hepatology, University of Arizona, Tucson, Arizona</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225253430</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Toll-like Receptor 9 Pathway Mediates Schlafen+-MDSC Polarization During Helicobacter-induced Gastric Metaplasias</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-08-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Gastroenterology</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1053/j.gastro.2022.04.031</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35487288</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1053/j.gastro.2022.04.031</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>University of Arizona College of Medicine, Department of Medicine, Division of Gastroenterology, Tucson, AZ, 85724 USA.; Wyant College of Optical Sciences, University of Arizona, Tucson, Arizona; University of Arizona College of Medicine, Department of Medicine, Division of Gastroenterology, Tucson, Arizona; University of Arizona College of Medicine, Department of Medicine, Division of Gastroenterology, Tucson, Arizona; University of Arizona College of Medicine, Department of Medicine, Division of Gastroenterology, Tucson, Arizona; University of Arizona College of Medicine, Department of Medicine, Division of Gastroenterology, Tucson, Arizona</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4285012661</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>GFAP-directed Inactivation of Men1 Exploits Glial Cell Plasticity in Favor of Neuroendocrine Reprogramming</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Cellular and Molecular Gastroenterology and Hepatology</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jcmgh.2022.06.009</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35835391</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jcmgh.2022.06.009</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,24 +800,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>The Univ. of Arizona (United States); Wyant College of Optical Sciences (United States); The Univ. of Arizona (United States); The Univ. of Arizona (United States); The Univ. of Arizona (United States); Wyant College of Optical Sciences (United States)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4214835879</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Evaluation of tile artifact correction methods for multiphoton microscopy mosaics of whole-slide tissue sections</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-03-02</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -800,14 +825,14 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1117/12.2609634</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -815,35 +840,40 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1117/12.2609634</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Gastroenterology &amp; Hepatology, Department of Medicine, University of Arizona, Tucson, Arizona. Electronic address:</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3209123114</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Moving Up a NOTCH: Defining the Stem Cell Niche in the Gastric Antrum</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Cellular and Molecular Gastroenterology and Hepatology</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jcmgh.2021.10.005</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34728187</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jcmgh.2021.10.005</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,39 +974,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283021515</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Su1659: DEMONSTRATING WHOLE-ORGAN LINEAGE TRACING OF FLUORESCENT MARKERS IN INTESTINAL STEM CELLS USING WIDEFIELD FLUORESCENCE IMAGING IN A ZFP148CREERT2 MOUSE MODEL</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Gastroenterology</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0016-5085(22)61555-5</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -979,35 +1014,40 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0016-5085(22)61555-5</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Dept. of Medicine-Gastroenterology &amp; Hepatology, University of Arizona, Tucson; Dept. of Cellular &amp; Molecular Medicine, University of Arizona, Tucson; Dept. of Medicine-Gastroenterology &amp; Hepatology, University of Arizona, Tucson; Dept. of Gastroenterology, Xiangya Hospital Central South University, Changsha, Hunan, China; Dinh Tien Hoang Institute of Medicine, Vietnam Union of Science and Technology Association, Institute of Biotechnology, Hanoi, Vietnam; Dept. of Medicine-Gastroenterology &amp; Hepatology, University of Arizona, Tucson; Dept. of Medicine-Gastroenterology &amp; Hepatology, University of Arizona, Tucson; Division of Pediatric General and Thoracic Surgery, Cincinnati Children’s Hospital Medical Center, Cincinnati, OH; Division of Pediatric General and Thoracic Surgery, Cincinnati Children’s Hospital Medical Center, Cincinnati, OH; Dept. of Cellular &amp; Molecular Medicine, University of Arizona, Tucson; Dept. of Medicine-Gastroenterology &amp; Hepatology, University of Arizona, Tucson</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4210356380</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Toll Like Receptor 9 Pathway Mediates Schlafen&lt;sup&gt;+&lt;/sup&gt;-MDSC Polarization During &lt;i&gt;Helicobacter&lt;/i&gt;-Induced Gastric Metaplasias</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-01-27</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.01.25.477562</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.01.25.477562</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t xml:space="preserve"> University of Arizona College of Medicine, Department of Medicine, Division of Gastroenterology, Tucson, AZ, 85724 USA;;  Wyant College of Optical Sciences, University of Arizona, Tucson, AZ, 8574 USA;  University of Arizona College of Medicine, Department of Medicine, Division of Gastroenterology, Tucson, AZ, 85724 USA;;  University of Arizona College of Medicine, Department of Medicine, Division of Gastroenterology, Tucson, AZ, 85724 USA;;  University of Arizona College of Medicine, Department of Medicine, Division of Gastroenterology, Tucson, AZ, 85724 USA;;  University of Arizona College of Medicine, Department of Medicine, Division of Gastroenterology, Tucson, AZ, 85724 USA;</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4211086078</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>GFAP-directed Inactivation of &lt;i&gt;Men1&lt;/i&gt; Exploits Glial Cell Plasticity in Favor of Neuroendocrine Reprogramming</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-02-10</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.02.10.479845</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.02.10.479845</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,24 +1235,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>The Univ. of Arizona College of Medicine (United States); The Univ. of Arizona College of Medicine (United States); The Univ. of Arizona College of Medicine (United States); The Univ. of Arizona College of Medicine (United States); Wyant College of Optical Sciences (United States)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4214866540</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Measuring variations in optical imaging markers in a glial cell-directed mouse model of human MEN1 syndrome</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-03-02</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1210,14 +1260,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1117/12.2608797</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1225,35 +1275,40 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1117/12.2608797</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,24 +1322,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>The Univ. of Arizona (United States); The Univ. of Arizona (United States); The Univ. of Arizona (United States); The Univ. of Arizona (United States); The Univ. of Arizona (United States)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220856994</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Multi-band fluorescence imaging and cell collection device for in vivo tumor characterization and growth assessment in xenograft mouse models</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2022-03-04</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1292,14 +1347,14 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1117/12.2609256</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1307,35 +1362,40 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1117/12.2609256</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,39 +1409,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Division of Digestive and Liver Diseases, Department of Medicine, Herbert Irving Comprehensive Cancer Center, Vagelos College of Physicians and Surgeons, Columbia University Irving Medical Center, New York, New York; Division of Gastroenterology and Hepatology, Department of Medicine, Mayo Clinic Hospital and College of Medicine, Rochester, Minnesota; Division of Gastroenterology, Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Division of Digestive and Liver Diseases, Department of Medicine, Herbert Irving Comprehensive Cancer Center, Vagelos College of Physicians and Surgeons, Columbia University Irving Medical Center, New York, New York; Division of Digestive and Liver Diseases, Department of Medicine, Herbert Irving Comprehensive Cancer Center, Vagelos College of Physicians and Surgeons, Columbia University Irving Medical Center, New York, New York</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4224307535</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Presentation of the Julius M. Friedenwald Medal to Timothy C. Wang, MD, AGAF</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Gastroenterology</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1053/j.gastro.2022.03.021</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1389,35 +1449,40 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35443933</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1053/j.gastro.2022.03.021</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1431,75 +1496,80 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Department of Medicine, Division of Gastroenterology, University of Arizona, Tucson; The First Affiliated Hospital of Guangxi Medical University, China; Midwestern University, Downers Grove, IL</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4280565457</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Menin-MLL Inhibitor MI-503 Blocks Menin Nuclear Export and Suppresses Hypergastrinemia</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2022-05-18</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.05.17.492246</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.05.17.492246</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1513,39 +1583,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4282962613</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>213: GFAP-DIRECTED INACTIVATION OF MEN1 PROMOTES NEUROENDOCRINE DIFFERENTIATION BY EXPLOITING GLIAL CELL PLASTICITY</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Gastroenterology</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0016-5085(22)60093-3</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1553,35 +1623,40 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>de</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0016-5085(22)60093-3</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1595,39 +1670,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4282965408</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>164: PROINFLAMMATORY CYTOKINES ASSOCIATED WITH A SENESCENT PHENOTYPE STIMULATE NEUROENDOCRINE REPROGRAMMING IN HUMAN DUODENAL GASTRINOMAS</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Gastroenterology</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0016-5085(22)60075-1</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1635,35 +1710,40 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0016-5085(22)60075-1</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1677,39 +1757,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283009817</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Sa1069: GASTRIC INTESTINAL METAPLASIA IN THE U.S. SOUTHWEST: LOOKING BEYOND HELICOBACTER PYLORI AND GENERALIZED DEMOGRAPHICS</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Gastroenterology</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0016-5085(22)60696-6</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1717,35 +1797,40 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="L17" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0016-5085(22)60696-6</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1759,39 +1844,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283010561</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Sa1091: MIR130B AS A NON-INVASIVE BIOMARKER FOR GASTRIC METAPLASIA, GASTRIC CANCER, AND OTHER GASTROINTESTINAL MALIGNANCIES.</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Gastroenterology</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0016-5085(22)60718-2</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1799,35 +1884,40 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0016-5085(22)60718-2</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1841,39 +1931,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283015554</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Tu1116: VIAGRA INHIBITS SCHLAFEN4+-MDSC MITIGATING HELICOBACTERINDUCED GASTRIC METAPLASIA</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Gastroenterology</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0016-5085(22)62104-8</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I19" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1881,35 +1971,40 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>de</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0016-5085(22)62104-8</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1923,39 +2018,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283017135</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>165: MUTATIONS IN MEN1 GENE ALTER ITS PROTEIN MENIN FUNCTIONS IN HUMAN GASTRINOMA; STRUCTURE-FUNCTION STUDIES OF MENIN.</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Gastroenterology</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0016-5085(22)60076-3</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I20" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1963,35 +2058,40 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>de</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0016-5085(22)60076-3</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2005,39 +2105,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283022052</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Su1662: CHARACTERIZING THE OPTICAL FINGERPRINT OF DUODENAL GASTRINOMA USING QUANTITATIVE MULTI-PHOTON AUTOFLUORESCENCE MICROSCOPY</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Gastroenterology</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0016-5085(22)61558-0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2045,35 +2145,40 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0016-5085(22)61558-0</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2087,39 +2192,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283028918</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>815: TOLL LIKE RECEPTOR 9 PATHWAY MEDIATES SCHLAFEN+-MDSC POLARIZATION DURING HELICOBACTER-INDUCED GASTRIC METAPLASIA</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Gastroenterology</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0016-5085(22)60481-5</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I22" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2127,35 +2232,40 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>de</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0016-5085(22)60481-5</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2169,39 +2279,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283034093</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>900: HNF1A MISSENSE MUTATION RESULTS IN LOSS-OF-FUNCTION AND PLAY A ROLE IN EARLY ONSET COLORECTAL CANCER</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Gastroenterology</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0016-5085(22)60529-8</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I23" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2209,35 +2319,40 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0016-5085(22)60529-8</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2251,75 +2366,80 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>Biomedical Optics and Optical Measurement Laboratory, Department of Biomedical Engineering, College of Engineering, University of Arizona, Tucson, AZ, United States;  University of Arizona College of Medicine;;  University of Arizona College of Medicine;;  University of Arizona; Wyant College of Optical Sciences, University of Arizona, Tucson, Arizona, United States</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4292980530</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Design, fabrication, and preclinical testing of a miniaturized, multispectral, chip-on-tip, imaging probe for intraluminal fluorescence imaging of the gastrointestinal tract</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2022-08-18</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.08.17.504220</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.08.17.504220</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2333,24 +2453,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>Department of Cellular and Molecular Medicine, University of Arizona; Department of Cellular and Molecular Medicine, University of Arizona; Department of Molecular and Cellular Biology, The University of Arizona; Department of Cellular and Molecular Medicine, University of Arizona; Department of Cellular and Molecular Medicine, University of Arizona; Department of Cellular and Molecular Medicine, University of Arizona; Department of Cellular and Molecular Medicine, University of Arizona; Department of Cellular and Molecular Medicine, University of Arizona; Department of Medicine, The University of Arizona; Department of Cellular and Molecular Medicine, University of Arizona; Department of Molecular and Cellular Biology, The University of Arizona</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4296681901</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Author response: Live-cell imaging in human colonic monolayers reveals ERK waves limit the stem cell compartment to maintain epithelial homeostasis</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2022-09-02</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2358,50 +2478,55 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>https://doi.org/10.7554/elife.78837.sa2</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I25" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>https://doi.org/10.7554/elife.78837.sa2</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>peer-review</t>
         </is>
@@ -2415,75 +2540,80 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>University of Arizona, Tucson, AZ, USA. jmerchant@arizona.edu.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4307426608</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>DDS Perspective: The Joy of Discovery and the Art of Mentoring</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2022-10-27</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Digestive Diseases and Sciences</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s10620-022-07726-y</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I26" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36301449</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s10620-022-07726-y</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2497,75 +2627,80 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>University of Arizona</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4307647123</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>DDS Profile: Juanita L. Merchant, MD, PhD</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2022-10-27</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Digestive Diseases and Sciences</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s10620-022-07725-z</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I27" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36301448</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s10620-022-07725-z</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2579,39 +2714,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>Department of Biomedical Engineering University of Arizona  Tucson Arizona USA; College of Medicine University of Arizona  Tucson Arizona USA; College of Medicine University of Arizona  Tucson Arizona USA; Department of Biomedical Engineering University of Arizona  Tucson Arizona USA; Wyant College of Optical Sciences University of Arizona  Tucson Arizona USA</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4311491855</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Quantitative characterization of duodenal gastrinoma autofluorescence using multiphoton microscopy</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2022-12-14</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Lasers in Surgery and Medicine</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/lsm.23619</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I28" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2619,35 +2754,40 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36515355</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/lsm.23619</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2661,75 +2801,80 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>Division of Gastroenterology and Hepatology, Department of Medicine, University of Arizona College of Medicine, Tucson, AZ 85724;; Division of Gastroenterology and Hepatology, Department of Medicine, University of Arizona College of Medicine, Tucson, AZ 85724;; Division of Gastroenterology and Hepatology, Department of Medicine, University of Arizona College of Medicine, Tucson, AZ 85724;; Department of Optical Sciences, University of Arizona Wyant College of Optical Sciences, Tucson, AZ 85724;; Department of Physiology, Midwestern University, Downers Grove, IL 85308;; Department of Pathology, University of Michigan, Ann Arbor, MI 48109; Department of Pathology, University of Michigan, Ann Arbor, MI 48109; Division of Gastroenterology and Hepatology, Department of Medicine, University of Arizona College of Medicine, Tucson, AZ 85724;</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4312121257</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Clinically defined mutations in&lt;i&gt;MEN1&lt;/i&gt;alter its tumor-suppressive function through increased menin turnover</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2022-12-20</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.12.20.521296</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I29" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.12.20.521296</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Juanita L Merchant_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Juanita L Merchant_2022.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1143,42 +1143,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Suzann Duan, Travis W. Sawyer, Ricky Sontz, Bradley A. Wieland, Andres F. Diaz, Juanita L. Merchant</t>
+          <t>Suzann Duan, Ricky Sontz, Juanita L. Merchant, Travis W. Sawyer</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> University of Arizona College of Medicine, Department of Medicine, Division of Gastroenterology, Tucson, AZ, 85724 USA;;  Wyant College of Optical Sciences, University of Arizona, Tucson, AZ, 8574 USA;  University of Arizona College of Medicine, Department of Medicine, Division of Gastroenterology, Tucson, AZ, 85724 USA;;  University of Arizona College of Medicine, Department of Medicine, Division of Gastroenterology, Tucson, AZ, 85724 USA;;  University of Arizona College of Medicine, Department of Medicine, Division of Gastroenterology, Tucson, AZ, 85724 USA;;  University of Arizona College of Medicine, Department of Medicine, Division of Gastroenterology, Tucson, AZ, 85724 USA;</t>
+          <t>The Univ. of Arizona College of Medicine (United States); The Univ. of Arizona College of Medicine (United States); The Univ. of Arizona College of Medicine (United States); The Univ. of Arizona College of Medicine (United States); Wyant College of Optical Sciences (United States)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4211086078</t>
+          <t>https://openalex.org/W4214866540</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>GFAP-directed Inactivation of &lt;i&gt;Men1&lt;/i&gt; Exploits Glial Cell Plasticity in Favor of Neuroendocrine Reprogramming</t>
+          <t>Measuring variations in optical imaging markers in a glial cell-directed mouse model of human MEN1 syndrome</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2022-02-10</t>
+          <t>2022-03-02</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Cold Spring Harbor Laboratory</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2022.02.10.479845</t>
+          <t>https://doi.org/10.1117/12.2608797</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1188,12 +1188,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2022.02.10.479845</t>
+          <t>https://doi.org/10.1117/12.2608797</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1230,27 +1230,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Suzann Duan, Ricky Sontz, Juanita L. Merchant, Travis W. Sawyer</t>
+          <t>Bridget Slomka, Suzann Duan, Ricky Sontz, Juanita L. Merchant, Travis W. Sawyer</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>The Univ. of Arizona College of Medicine (United States); The Univ. of Arizona College of Medicine (United States); The Univ. of Arizona College of Medicine (United States); The Univ. of Arizona College of Medicine (United States); Wyant College of Optical Sciences (United States)</t>
+          <t>The Univ. of Arizona (United States); The Univ. of Arizona (United States); The Univ. of Arizona (United States); The Univ. of Arizona (United States); The Univ. of Arizona (United States)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4214866540</t>
+          <t>https://openalex.org/W4220856994</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Measuring variations in optical imaging markers in a glial cell-directed mouse model of human MEN1 syndrome</t>
+          <t>Multi-band fluorescence imaging and cell collection device for in vivo tumor characterization and growth assessment in xenograft mouse models</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2022-03-02</t>
+          <t>2022-03-04</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1117/12.2608797</t>
+          <t>https://doi.org/10.1117/12.2609256</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1117/12.2608797</t>
+          <t>https://doi.org/10.1117/12.2609256</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1317,42 +1317,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bridget Slomka, Suzann Duan, Ricky Sontz, Juanita L. Merchant, Travis W. Sawyer</t>
+          <t>Julian A. Abrams, Michael Camilleri, Juanita L. Merchant, Anil K. Rustgi, Kelley S. Yan</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>The Univ. of Arizona (United States); The Univ. of Arizona (United States); The Univ. of Arizona (United States); The Univ. of Arizona (United States); The Univ. of Arizona (United States)</t>
+          <t>Division of Digestive and Liver Diseases, Department of Medicine, Herbert Irving Comprehensive Cancer Center, Vagelos College of Physicians and Surgeons, Columbia University Irving Medical Center, New York, New York; Division of Gastroenterology and Hepatology, Department of Medicine, Mayo Clinic Hospital and College of Medicine, Rochester, Minnesota; Division of Gastroenterology, Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Division of Digestive and Liver Diseases, Department of Medicine, Herbert Irving Comprehensive Cancer Center, Vagelos College of Physicians and Surgeons, Columbia University Irving Medical Center, New York, New York; Division of Digestive and Liver Diseases, Department of Medicine, Herbert Irving Comprehensive Cancer Center, Vagelos College of Physicians and Surgeons, Columbia University Irving Medical Center, New York, New York</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4220856994</t>
+          <t>https://openalex.org/W4224307535</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Multi-band fluorescence imaging and cell collection device for in vivo tumor characterization and growth assessment in xenograft mouse models</t>
+          <t>Presentation of the Julius M. Friedenwald Medal to Timothy C. Wang, MD, AGAF</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2022-03-04</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Gastroenterology</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1117/12.2609256</t>
+          <t>https://doi.org/10.1053/j.gastro.2022.03.021</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35443933</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1117/12.2609256</t>
+          <t>https://doi.org/10.1053/j.gastro.2022.03.021</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1404,27 +1404,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Julian A. Abrams, Michael Camilleri, Juanita L. Merchant, Anil K. Rustgi, Kelley S. Yan</t>
+          <t>Suzann Duan, Travis W. Sawyer, Ricky Sontz, Bradley A. Wieland, Andres F. Diaz, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Division of Digestive and Liver Diseases, Department of Medicine, Herbert Irving Comprehensive Cancer Center, Vagelos College of Physicians and Surgeons, Columbia University Irving Medical Center, New York, New York; Division of Gastroenterology and Hepatology, Department of Medicine, Mayo Clinic Hospital and College of Medicine, Rochester, Minnesota; Division of Gastroenterology, Department of Medicine, University of Arizona Health Sciences, Tucson, Arizona; Division of Digestive and Liver Diseases, Department of Medicine, Herbert Irving Comprehensive Cancer Center, Vagelos College of Physicians and Surgeons, Columbia University Irving Medical Center, New York, New York; Division of Digestive and Liver Diseases, Department of Medicine, Herbert Irving Comprehensive Cancer Center, Vagelos College of Physicians and Surgeons, Columbia University Irving Medical Center, New York, New York</t>
+          <t xml:space="preserve">; ; ; ; ; </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4224307535</t>
+          <t>https://openalex.org/W4282962613</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Presentation of the Julius M. Friedenwald Medal to Timothy C. Wang, MD, AGAF</t>
+          <t>213: GFAP-DIRECTED INACTIVATION OF MEN1 PROMOTES NEUROENDOCRINE DIFFERENTIATION BY EXPLOITING GLIAL CELL PLASTICITY</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1053/j.gastro.2022.03.021</t>
+          <t>https://doi.org/10.1016/s0016-5085(22)60093-3</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>de</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/35443933</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1053/j.gastro.2022.03.021</t>
+          <t>https://doi.org/10.1016/s0016-5085(22)60093-3</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1491,42 +1491,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Juanita L. Merchant, Zhen Wang, Sinju Sundaresan</t>
+          <t>Suzann Duan, Jayati Chakrabarti, Yana Zavros, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Department of Medicine, Division of Gastroenterology, University of Arizona, Tucson; The First Affiliated Hospital of Guangxi Medical University, China; Midwestern University, Downers Grove, IL</t>
+          <t xml:space="preserve">; ; ; </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4280565457</t>
+          <t>https://openalex.org/W4282965408</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Menin-MLL Inhibitor MI-503 Blocks Menin Nuclear Export and Suppresses Hypergastrinemia</t>
+          <t>164: PROINFLAMMATORY CYTOKINES ASSOCIATED WITH A SENESCENT PHENOTYPE STIMULATE NEUROENDOCRINE REPROGRAMMING IN HUMAN DUODENAL GASTRINOMAS</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
+          <t>Gastroenterology</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Cold Spring Harbor Laboratory</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2022.05.17.492246</t>
+          <t>https://doi.org/10.1016/s0016-5085(22)60075-1</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1536,12 +1536,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2022.05.17.492246</t>
+          <t>https://doi.org/10.1016/s0016-5085(22)60075-1</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1578,7 +1578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Suzann Duan, Travis W. Sawyer, Ricky Sontz, Bradley A. Wieland, Andres F. Diaz, Juanita L. Merchant</t>
+          <t>Courtney Thompson, Lin Ding, Zoe Mendoza, Jayati Chakrabarti, Yana Zavros, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1588,12 +1588,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4282962613</t>
+          <t>https://openalex.org/W4283010561</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>213: GFAP-DIRECTED INACTIVATION OF MEN1 PROMOTES NEUROENDOCRINE DIFFERENTIATION BY EXPLOITING GLIAL CELL PLASTICITY</t>
+          <t>Sa1091: MIR130B AS A NON-INVASIVE BIOMARKER FOR GASTRIC METAPLASIA, GASTRIC CANCER, AND OTHER GASTROINTESTINAL MALIGNANCIES.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0016-5085(22)60093-3</t>
+          <t>https://doi.org/10.1016/s0016-5085(22)60718-2</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0016-5085(22)60093-3</t>
+          <t>https://doi.org/10.1016/s0016-5085(22)60718-2</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1665,22 +1665,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Suzann Duan, Jayati Chakrabarti, Yana Zavros, Juanita L. Merchant</t>
+          <t>Lin Ding, Sulaiman Sheriff, Ricky Sontz, Zoe Mendoza, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; </t>
+          <t xml:space="preserve">; ; ; ; </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4282965408</t>
+          <t>https://openalex.org/W4283015554</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>164: PROINFLAMMATORY CYTOKINES ASSOCIATED WITH A SENESCENT PHENOTYPE STIMULATE NEUROENDOCRINE REPROGRAMMING IN HUMAN DUODENAL GASTRINOMAS</t>
+          <t>Tu1116: VIAGRA INHIBITS SCHLAFEN4+-MDSC MITIGATING HELICOBACTERINDUCED GASTRIC METAPLASIA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0016-5085(22)60075-1</t>
+          <t>https://doi.org/10.1016/s0016-5085(22)62104-8</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>de</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0016-5085(22)60075-1</t>
+          <t>https://doi.org/10.1016/s0016-5085(22)62104-8</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1752,22 +1752,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Shilpa Junna, Malini Chauhan, Christopher Arteaga, Zachary Warner, Juanita L. Merchant</t>
+          <t>Sulaiman Sheriff, Suzann Duan, Andres F. Diaz, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; </t>
+          <t xml:space="preserve">; ; ; </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283009817</t>
+          <t>https://openalex.org/W4283017135</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sa1069: GASTRIC INTESTINAL METAPLASIA IN THE U.S. SOUTHWEST: LOOKING BEYOND HELICOBACTER PYLORI AND GENERALIZED DEMOGRAPHICS</t>
+          <t>165: MUTATIONS IN MEN1 GENE ALTER ITS PROTEIN MENIN FUNCTIONS IN HUMAN GASTRINOMA; STRUCTURE-FUNCTION STUDIES OF MENIN.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0016-5085(22)60696-6</t>
+          <t>https://doi.org/10.1016/s0016-5085(22)60076-3</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>de</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0016-5085(22)60696-6</t>
+          <t>https://doi.org/10.1016/s0016-5085(22)60076-3</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1839,57 +1839,57 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Courtney Thompson, Lin Ding, Zoe Mendoza, Jayati Chakrabarti, Yana Zavros, Juanita L. Merchant</t>
+          <t>Bridget Slomka, Suzann Duan, Ricky Sontz, Juanita L. Merchant, Travis W. Sawyer</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; </t>
+          <t>Biomedical Optics and Optical Measurement Laboratory, Department of Biomedical Engineering, College of Engineering, University of Arizona, Tucson, AZ, United States;  University of Arizona College of Medicine;;  University of Arizona College of Medicine;;  University of Arizona; Wyant College of Optical Sciences, University of Arizona, Tucson, Arizona, United States</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283010561</t>
+          <t>https://openalex.org/W4292980530</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sa1091: MIR130B AS A NON-INVASIVE BIOMARKER FOR GASTRIC METAPLASIA, GASTRIC CANCER, AND OTHER GASTROINTESTINAL MALIGNANCIES.</t>
+          <t>Design, fabrication, and preclinical testing of a miniaturized, multispectral, chip-on-tip, imaging probe for intraluminal fluorescence imaging of the gastrointestinal tract</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-08-18</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gastroenterology</t>
+          <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0016-5085(22)60718-2</t>
+          <t>https://doi.org/10.1101/2022.08.17.504220</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0016-5085(22)60718-2</t>
+          <t>https://doi.org/10.1101/2022.08.17.504220</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -1926,42 +1926,42 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lin Ding, Sulaiman Sheriff, Ricky Sontz, Zoe Mendoza, Juanita L. Merchant</t>
+          <t>Kelvin W. Pond, Julia Morris, Olga Alkhimenok, Reeba P Varghese, Carly R. Cabel, Nathan A. Ellis, Jayati Chakrabarti, Yana Zavros, Juanita L. Merchant, Curtis A. Thorne, Andrew L. Paek</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; </t>
+          <t>Department of Cellular and Molecular Medicine, University of Arizona; Department of Cellular and Molecular Medicine, University of Arizona; Department of Molecular and Cellular Biology, The University of Arizona; Department of Cellular and Molecular Medicine, University of Arizona; Department of Cellular and Molecular Medicine, University of Arizona; Department of Cellular and Molecular Medicine, University of Arizona; Department of Cellular and Molecular Medicine, University of Arizona; Department of Cellular and Molecular Medicine, University of Arizona; Department of Medicine, The University of Arizona; Department of Cellular and Molecular Medicine, University of Arizona; Department of Molecular and Cellular Biology, The University of Arizona</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283015554</t>
+          <t>https://openalex.org/W4296681901</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tu1116: VIAGRA INHIBITS SCHLAFEN4+-MDSC MITIGATING HELICOBACTERINDUCED GASTRIC METAPLASIA</t>
+          <t>Author response: Live-cell imaging in human colonic monolayers reveals ERK waves limit the stem cell compartment to maintain epithelial homeostasis</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-09-02</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gastroenterology</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0016-5085(22)62104-8</t>
+          <t>https://doi.org/10.7554/elife.78837.sa2</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1971,17 +1971,17 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2001,54 +2001,54 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0016-5085(22)62104-8</t>
+          <t>https://doi.org/10.7554/elife.78837.sa2</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>peer-review</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sulaiman Sheriff, Suzann Duan, Andres F. Diaz, Juanita L. Merchant</t>
+          <t>Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; </t>
+          <t>University of Arizona</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283017135</t>
+          <t>https://openalex.org/W4307647123</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>165: MUTATIONS IN MEN1 GENE ALTER ITS PROTEIN MENIN FUNCTIONS IN HUMAN GASTRINOMA; STRUCTURE-FUNCTION STUDIES OF MENIN.</t>
+          <t>DDS Profile: Juanita L. Merchant, MD, PhD</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Gastroenterology</t>
+          <t>Digestive Diseases and Sciences</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Springer Science+Business Media</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0016-5085(22)60076-3</t>
+          <t>https://doi.org/10.1007/s10620-022-07725-z</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2058,17 +2058,17 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36301448</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0016-5085(22)60076-3</t>
+          <t>https://doi.org/10.1007/s10620-022-07725-z</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2105,37 +2105,37 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; </t>
+          <t>Department of Biomedical Engineering University of Arizona  Tucson Arizona USA; College of Medicine University of Arizona  Tucson Arizona USA; College of Medicine University of Arizona  Tucson Arizona USA; Department of Biomedical Engineering University of Arizona  Tucson Arizona USA; Wyant College of Optical Sciences University of Arizona  Tucson Arizona USA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283022052</t>
+          <t>https://openalex.org/W4311491855</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Su1662: CHARACTERIZING THE OPTICAL FINGERPRINT OF DUODENAL GASTRINOMA USING QUANTITATIVE MULTI-PHOTON AUTOFLUORESCENCE MICROSCOPY</t>
+          <t>Quantitative characterization of duodenal gastrinoma autofluorescence using multiphoton microscopy</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-12-14</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Gastroenterology</t>
+          <t>Lasers in Surgery and Medicine</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Wiley-Blackwell</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0016-5085(22)61558-0</t>
+          <t>https://doi.org/10.1002/lsm.23619</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2170,12 +2170,12 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36515355</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0016-5085(22)61558-0</t>
+          <t>https://doi.org/10.1002/lsm.23619</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -2187,42 +2187,42 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Lin Ding, Jayati Chakrabarti, Sulaiman Sheriff, Ricky Sontz, Zoe Mendoza, Yana Zavros, Juanita L. Merchant</t>
+          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; </t>
+          <t>Division of Gastroenterology and Hepatology, Department of Medicine, University of Arizona College of Medicine, Tucson, AZ 85724;; Division of Gastroenterology and Hepatology, Department of Medicine, University of Arizona College of Medicine, Tucson, AZ 85724;; Division of Gastroenterology and Hepatology, Department of Medicine, University of Arizona College of Medicine, Tucson, AZ 85724;; Department of Optical Sciences, University of Arizona Wyant College of Optical Sciences, Tucson, AZ 85724;; Department of Physiology, Midwestern University, Downers Grove, IL 85308;; Department of Pathology, University of Michigan, Ann Arbor, MI 48109; Department of Pathology, University of Michigan, Ann Arbor, MI 48109; Division of Gastroenterology and Hepatology, Department of Medicine, University of Arizona College of Medicine, Tucson, AZ 85724;</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283028918</t>
+          <t>https://openalex.org/W4312121257</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>815: TOLL LIKE RECEPTOR 9 PATHWAY MEDIATES SCHLAFEN+-MDSC POLARIZATION DURING HELICOBACTER-INDUCED GASTRIC METAPLASIA</t>
+          <t>Clinically defined mutations in&lt;i&gt;MEN1&lt;/i&gt;alter its tumor-suppressive function through increased menin turnover</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-12-20</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Gastroenterology</t>
+          <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0016-5085(22)60481-5</t>
+          <t>https://doi.org/10.1101/2022.12.20.521296</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2232,17 +2232,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0016-5085(22)60481-5</t>
+          <t>https://doi.org/10.1101/2022.12.20.521296</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2274,42 +2274,42 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Heyu Song, Sulaiman Sheriff, Ricky Sontz, Elena M. Stoffel, Juanita L. Merchant</t>
+          <t>Suzann Duan, Travis W. Sawyer, Ricky Sontz, Bradley A. Wieland, Andres F. Diaz, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; </t>
+          <t xml:space="preserve"> University of Arizona College of Medicine, Department of Medicine, Division of Gastroenterology, Tucson, AZ, 85724 USA;;  Wyant College of Optical Sciences, University of Arizona, Tucson, AZ, 8574 USA;  University of Arizona College of Medicine, Department of Medicine, Division of Gastroenterology, Tucson, AZ, 85724 USA;;  University of Arizona College of Medicine, Department of Medicine, Division of Gastroenterology, Tucson, AZ, 85724 USA;;  University of Arizona College of Medicine, Department of Medicine, Division of Gastroenterology, Tucson, AZ, 85724 USA;;  University of Arizona College of Medicine, Department of Medicine, Division of Gastroenterology, Tucson, AZ, 85724 USA;</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283034093</t>
+          <t>https://openalex.org/W4211086078</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>900: HNF1A MISSENSE MUTATION RESULTS IN LOSS-OF-FUNCTION AND PLAY A ROLE IN EARLY ONSET COLORECTAL CANCER</t>
+          <t>GFAP-directed Inactivation of &lt;i&gt;Men1&lt;/i&gt; Exploits Glial Cell Plasticity in Favor of Neuroendocrine Reprogramming</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-02-10</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Gastroenterology</t>
+          <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0016-5085(22)60529-8</t>
+          <t>https://doi.org/10.1101/2022.02.10.479845</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2319,12 +2319,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0016-5085(22)60529-8</t>
+          <t>https://doi.org/10.1101/2022.02.10.479845</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -2361,27 +2361,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Bridget Slomka, Suzann Duan, Ricky Sontz, Juanita L. Merchant, Travis W. Sawyer</t>
+          <t>Juanita L. Merchant, Zhen Wang, Sinju Sundaresan</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Biomedical Optics and Optical Measurement Laboratory, Department of Biomedical Engineering, College of Engineering, University of Arizona, Tucson, AZ, United States;  University of Arizona College of Medicine;;  University of Arizona College of Medicine;;  University of Arizona; Wyant College of Optical Sciences, University of Arizona, Tucson, Arizona, United States</t>
+          <t>Department of Medicine, Division of Gastroenterology, University of Arizona, Tucson; The First Affiliated Hospital of Guangxi Medical University, China; Midwestern University, Downers Grove, IL</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4292980530</t>
+          <t>https://openalex.org/W4280565457</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Design, fabrication, and preclinical testing of a miniaturized, multispectral, chip-on-tip, imaging probe for intraluminal fluorescence imaging of the gastrointestinal tract</t>
+          <t>Menin-MLL Inhibitor MI-503 Blocks Menin Nuclear Export and Suppresses Hypergastrinemia</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2396,12 +2396,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2022.08.17.504220</t>
+          <t>https://doi.org/10.1101/2022.05.17.492246</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2022.08.17.504220</t>
+          <t>https://doi.org/10.1101/2022.05.17.492246</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -2448,42 +2448,42 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Kelvin W. Pond, Julia Morris, Olga Alkhimenok, Reeba P Varghese, Carly R. Cabel, Nathan A. Ellis, Jayati Chakrabarti, Yana Zavros, Juanita L. Merchant, Curtis A. Thorne, Andrew L. Paek</t>
+          <t>Shilpa Junna, Malini Chauhan, Christopher Arteaga, Zachary Warner, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Department of Cellular and Molecular Medicine, University of Arizona; Department of Cellular and Molecular Medicine, University of Arizona; Department of Molecular and Cellular Biology, The University of Arizona; Department of Cellular and Molecular Medicine, University of Arizona; Department of Cellular and Molecular Medicine, University of Arizona; Department of Cellular and Molecular Medicine, University of Arizona; Department of Cellular and Molecular Medicine, University of Arizona; Department of Cellular and Molecular Medicine, University of Arizona; Department of Medicine, The University of Arizona; Department of Cellular and Molecular Medicine, University of Arizona; Department of Molecular and Cellular Biology, The University of Arizona</t>
+          <t xml:space="preserve">; ; ; ; </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4296681901</t>
+          <t>https://openalex.org/W4283009817</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Author response: Live-cell imaging in human colonic monolayers reveals ERK waves limit the stem cell compartment to maintain epithelial homeostasis</t>
+          <t>Sa1069: GASTRIC INTESTINAL METAPLASIA IN THE U.S. SOUTHWEST: LOOKING BEYOND HELICOBACTER PYLORI AND GENERALIZED DEMOGRAPHICS</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2022-09-02</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Gastroenterology</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7554/elife.78837.sa2</t>
+          <t>https://doi.org/10.1016/s0016-5085(22)60696-6</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2493,17 +2493,17 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2523,54 +2523,54 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7554/elife.78837.sa2</t>
+          <t>https://doi.org/10.1016/s0016-5085(22)60696-6</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>peer-review</t>
+          <t>article</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Juanita L. Merchant</t>
+          <t>Thomas G. Knapp, Suzann Duan, Juanita L. Merchant, Travis W. Sawyer</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>University of Arizona, Tucson, AZ, USA. jmerchant@arizona.edu.</t>
+          <t xml:space="preserve">; ; ; </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4307426608</t>
+          <t>https://openalex.org/W4283022052</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DDS Perspective: The Joy of Discovery and the Art of Mentoring</t>
+          <t>Su1662: CHARACTERIZING THE OPTICAL FINGERPRINT OF DUODENAL GASTRINOMA USING QUANTITATIVE MULTI-PHOTON AUTOFLUORESCENCE MICROSCOPY</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Digestive Diseases and Sciences</t>
+          <t>Gastroenterology</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Springer Science+Business Media</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s10620-022-07726-y</t>
+          <t>https://doi.org/10.1016/s0016-5085(22)61558-0</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2580,12 +2580,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2605,12 +2605,12 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36301449</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s10620-022-07726-y</t>
+          <t>https://doi.org/10.1016/s0016-5085(22)61558-0</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -2622,42 +2622,42 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Juanita L. Merchant</t>
+          <t>Lin Ding, Jayati Chakrabarti, Sulaiman Sheriff, Ricky Sontz, Zoe Mendoza, Yana Zavros, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>University of Arizona</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4307647123</t>
+          <t>https://openalex.org/W4283028918</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DDS Profile: Juanita L. Merchant, MD, PhD</t>
+          <t>815: TOLL LIKE RECEPTOR 9 PATHWAY MEDIATES SCHLAFEN+-MDSC POLARIZATION DURING HELICOBACTER-INDUCED GASTRIC METAPLASIA</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Digestive Diseases and Sciences</t>
+          <t>Gastroenterology</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Springer Science+Business Media</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s10620-022-07725-z</t>
+          <t>https://doi.org/10.1016/s0016-5085(22)60481-5</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2667,17 +2667,17 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>de</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2692,12 +2692,12 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36301448</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s10620-022-07725-z</t>
+          <t>https://doi.org/10.1016/s0016-5085(22)60481-5</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -2709,42 +2709,42 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Thomas G. Knapp, Suzann Duan, Juanita L. Merchant, Travis W. Sawyer</t>
+          <t>Heyu Song, Sulaiman Sheriff, Ricky Sontz, Elena M. Stoffel, Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Department of Biomedical Engineering University of Arizona  Tucson Arizona USA; College of Medicine University of Arizona  Tucson Arizona USA; College of Medicine University of Arizona  Tucson Arizona USA; Department of Biomedical Engineering University of Arizona  Tucson Arizona USA; Wyant College of Optical Sciences University of Arizona  Tucson Arizona USA</t>
+          <t xml:space="preserve">; ; ; ; </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4311491855</t>
+          <t>https://openalex.org/W4283034093</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Quantitative characterization of duodenal gastrinoma autofluorescence using multiphoton microscopy</t>
+          <t>900: HNF1A MISSENSE MUTATION RESULTS IN LOSS-OF-FUNCTION AND PLAY A ROLE IN EARLY ONSET COLORECTAL CANCER</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2022-12-14</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lasers in Surgery and Medicine</t>
+          <t>Gastroenterology</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Wiley-Blackwell</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/lsm.23619</t>
+          <t>https://doi.org/10.1016/s0016-5085(22)60529-8</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2759,7 +2759,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2779,12 +2779,12 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36515355</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/lsm.23619</t>
+          <t>https://doi.org/10.1016/s0016-5085(22)60529-8</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -2796,42 +2796,42 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Suzann Duan, Sulaiman Sheriff, Uloma B. Elvis‐Offiah, Travis W. Sawyer, Sinju Sundaresan, Tomasz Cierpicki, Jolanta Grembecka, Juanita L. Merchant</t>
+          <t>Juanita L. Merchant</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Division of Gastroenterology and Hepatology, Department of Medicine, University of Arizona College of Medicine, Tucson, AZ 85724;; Division of Gastroenterology and Hepatology, Department of Medicine, University of Arizona College of Medicine, Tucson, AZ 85724;; Division of Gastroenterology and Hepatology, Department of Medicine, University of Arizona College of Medicine, Tucson, AZ 85724;; Department of Optical Sciences, University of Arizona Wyant College of Optical Sciences, Tucson, AZ 85724;; Department of Physiology, Midwestern University, Downers Grove, IL 85308;; Department of Pathology, University of Michigan, Ann Arbor, MI 48109; Department of Pathology, University of Michigan, Ann Arbor, MI 48109; Division of Gastroenterology and Hepatology, Department of Medicine, University of Arizona College of Medicine, Tucson, AZ 85724;</t>
+          <t>University of Arizona, Tucson, AZ, USA. jmerchant@arizona.edu.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4312121257</t>
+          <t>https://openalex.org/W4307426608</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Clinically defined mutations in&lt;i&gt;MEN1&lt;/i&gt;alter its tumor-suppressive function through increased menin turnover</t>
+          <t>DDS Perspective: The Joy of Discovery and the Art of Mentoring</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2022-12-20</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
+          <t>Digestive Diseases and Sciences</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Cold Spring Harbor Laboratory</t>
+          <t>Springer Science+Business Media</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2022.12.20.521296</t>
+          <t>https://doi.org/10.1007/s10620-022-07726-y</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2841,12 +2841,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2866,12 +2866,12 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36301449</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2022.12.20.521296</t>
+          <t>https://doi.org/10.1007/s10620-022-07726-y</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
